--- a/hackathons/google-genai-ex-2024/tracker.xlsx
+++ b/hackathons/google-genai-ex-2024/tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\root\projects\hackathons\google-genai-ex-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\projects\hackathons\google-genai-ex-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10050" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="29010" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timelines" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +890,7 @@
       <c r="A9" s="4">
         <v>41518</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
@@ -918,7 +918,7 @@
       <c r="A12" s="4">
         <v>47331</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -931,6 +931,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -940,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1109,7 +1111,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
